--- a/medicine/Mort/Déposition_des_empereurs_byzantins/Déposition_des_empereurs_byzantins.xlsx
+++ b/medicine/Mort/Déposition_des_empereurs_byzantins/Déposition_des_empereurs_byzantins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9position_des_empereurs_byzantins</t>
+          <t>Déposition_des_empereurs_byzantins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres cours, la cour byzantine fut souvent le théâtre d’intrigues et de complots pour la magistrature suprême de l’empire. La déposition des empereurs byzantins est l’une des modalités de fin de règne de certains des empereurs s’étant succédé entre 324 (Constantin Ier) et 1453 (Constantin XI Paléologue).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9position_des_empereurs_byzantins</t>
+          <t>Déposition_des_empereurs_byzantins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme dans toute la chrétienté orientale (tsars, rois, voïvodes ou hospodars) la charge d’empereur byzantin (« basileus ») n’est pas transmissible héréditairement, même si des dynasties réussissent parfois à conserver le trône sur plusieurs générations. Aucune loi de succession ne certifiait que le descendant d’un empereur monterait sur le trône, bien qu’à partir du XIe siècle, un descendant avait des chances supérieures à d’autres d’accéder aux fonctions suprêmes.
 En fait, on considérait que l’empereur était choisi par Dieu et que la volonté divine pouvait aussi s’exprimer à travers les conflits et les ambitions des hommes. Symbole du caractère essentiellement éphémère de leur pouvoir, les empereurs byzantins se voient remettre l’akakia lors de leur intronisation : une bourse de soie pourpre pleine de poussière qui leur rappelait qu’ils n’étaient que des hommes, destinés à redevenir poussière. L’empereur ne tire sa légitimité que de la volonté de Dieu, et non de son prédécesseur ou de lui-même. Par conséquent, le basileus n’est qu’un « servant et lieutenant de Dieu » (ἐργαστὸς καὶ λοχαγὸς τοῦ Θεοῦ) et tous ses actes dépendent étroitement de la volonté divine. Cette conception implique nécessairement que n’importe qui puisse être élu par Dieu pour monter sur le trône impérial : Justin Ier, Michel II, Basile Ier, Michel IV ou Michel V, tous hommes du peuple, furent considérés comme choisis parmi le peuple pour régner sur l’Empire.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9position_des_empereurs_byzantins</t>
+          <t>Déposition_des_empereurs_byzantins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Les morts violentes des empereurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Valens, tué au combat à la bataille d'Andrinople (378)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Valens, tué au combat à la bataille d'Andrinople (378)
 Théodose II, mort des suites d'un accident de cheval (450)
 Vassiliskos, mort de faim en prison (477)
 Maurice Ier, décapité (602)
@@ -576,10 +592,7 @@
 Nicolas Kanabos, étranglé (1204)
 Alexis V, aveuglé par son beau-père Alexis III, mutilé, précipité de la colonne de Théodose par les Croisés (1204)
 Alexis III Ange, maltraité et mort en prison (v. 1211)
-Constantin XI, tué au combat par les Turcs lors de la chute de Constantinople (1453)
-La mort d'Andronic Ier
-Il connut une mort horrible qui marqua ses contemporains : on lui coupe la main droite, on l’attache sur le dos d’un cheval galeux et on l’exhibe au pilori dans Constantinople pendant plusieurs jours sans eau ni nourriture. Pendant ces jours, on lui jette de l’eau bouillante au visage, on lui arrache un œil et on le pend par les pieds entre deux piliers sur l’Hippodrome. Il n’arrête pas de répéter : « Aie pitié, mon Dieu ! Pourquoi s’acharner sur un roseau brisé ? ». Un soldat génois met fin à ses souffrances en lui plongeant une lame dans le cœur.
-</t>
+Constantin XI, tué au combat par les Turcs lors de la chute de Constantinople (1453)</t>
         </is>
       </c>
     </row>
@@ -589,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9position_des_empereurs_byzantins</t>
+          <t>Déposition_des_empereurs_byzantins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,12 +617,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les morts violentes des empereurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La mort d'Andronic Ier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il connut une mort horrible qui marqua ses contemporains : on lui coupe la main droite, on l’attache sur le dos d’un cheval galeux et on l’exhibe au pilori dans Constantinople pendant plusieurs jours sans eau ni nourriture. Pendant ces jours, on lui jette de l’eau bouillante au visage, on lui arrache un œil et on le pend par les pieds entre deux piliers sur l’Hippodrome. Il n’arrête pas de répéter : « Aie pitié, mon Dieu ! Pourquoi s’acharner sur un roseau brisé ? ». Un soldat génois met fin à ses souffrances en lui plongeant une lame dans le cœur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Déposition_des_empereurs_byzantins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9position_des_empereurs_byzantins</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Lésions, mutilations, exils et abdications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heraclonas, nez tranché, exilé (641)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Heraclonas, nez tranché, exilé (641)
 Justinien II, nez tranché, exilé chez les Khazars (695)
 Anastase II, exilé dans un monastère de Thessalonique (715)
 Théodose III, exilé dans un monastère (717)
@@ -629,11 +681,80 @@
 Andronic II Paléologue, exilé dans un monastère (1328)
 Jean VI Cantacuzène, exilé dans un monastère (1354)
 Andronic IV, aveuglé (1374)
-Jean VII, aveuglé (1374)
-La rhinokopia
-La rhinokopia est la mutilation du nez. On croyait qu'un homme ayant eu le nez coupé ne pouvait plus devenir empereur. Après que Justinien II fut réinvesti empereur en 705 en ayant le nez coupé (il aurait utilisé une prothèse en or), cette mutilation ne fut plus jamais utilisée.
-L'aveuglement
-Philippicos fut la première victime de l’aveuglement, une pratique utilisée jusqu’à la fin de l’empire.
+Jean VII, aveuglé (1374)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Déposition_des_empereurs_byzantins</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9position_des_empereurs_byzantins</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lésions, mutilations, exils et abdications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La rhinokopia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rhinokopia est la mutilation du nez. On croyait qu'un homme ayant eu le nez coupé ne pouvait plus devenir empereur. Après que Justinien II fut réinvesti empereur en 705 en ayant le nez coupé (il aurait utilisé une prothèse en or), cette mutilation ne fut plus jamais utilisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Déposition_des_empereurs_byzantins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9position_des_empereurs_byzantins</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lésions, mutilations, exils et abdications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'aveuglement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippicos fut la première victime de l’aveuglement, une pratique utilisée jusqu’à la fin de l’empire.
  Portail du monde byzantin   Portail sur la mort   Portail du haut Moyen Âge                   </t>
         </is>
       </c>
